--- a/wip/Notes.xlsx
+++ b/wip/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebva\Desktop\advice-gpt-api\wip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F898370-0A2B-4069-80A6-4CE2E7177071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10579AF7-A313-4B1F-9D0B-B49D1909A606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34410" yWindow="240" windowWidth="17055" windowHeight="20505" xr2:uid="{3E918DA4-B322-4D53-A428-BE33F860193C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>URL</t>
   </si>
@@ -64,53 +64,35 @@
     <t>Docstring Template</t>
   </si>
   <si>
-    <t xml:space="preserve">    """</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Summary line.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Extended description of function.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ----------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    arg1 : int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Description of arg1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    arg2 : str</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Description of arg2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Returns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    -------</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Description of return value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return 42</t>
+    <t>    Returns the addition of two numbers.</t>
+  </si>
+  <si>
+    <t>    :param a: Required first number.</t>
+  </si>
+  <si>
+    <t>    :param b: Required second number.</t>
+  </si>
+  <si>
+    <t>    :type a: int</t>
+  </si>
+  <si>
+    <t>    :type b: int</t>
+  </si>
+  <si>
+    <t>    :return: a + b.</t>
+  </si>
+  <si>
+    <t>    :rtype: int</t>
+  </si>
+  <si>
+    <t>    """</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,9 +101,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,12 +132,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,144 +457,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CC046B-8C1A-4D73-A1E5-FAA35B3BD74E}">
-  <dimension ref="C5:C34"/>
+  <dimension ref="C5:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C34"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="2" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="2" t="s">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="2" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="2" t="s">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="2" t="s">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="2" t="s">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
